--- a/config_8.24/shoping_config_xiaomi.xlsx
+++ b/config_8.24/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="1939">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7263,6 +7263,220 @@
   </si>
   <si>
     <t>清凉礼包</t>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"101万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1010000,1100000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>非冲金鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5100000,5400000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000000,10000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1020万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10200000,10800000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0000000,20000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2040万金币"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20400000,21600000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0000000,50000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10222,13 +10436,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG704"/>
+  <dimension ref="A1:AIG708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X629" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X698" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A635" sqref="A635:XFD646"/>
+      <selection pane="bottomRight" activeCell="A705" sqref="A705:XFD708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -63954,6 +64168,294 @@
         <v>1</v>
       </c>
     </row>
+    <row r="705" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A705" s="21">
+        <v>704</v>
+      </c>
+      <c r="B705" s="30">
+        <v>10621</v>
+      </c>
+      <c r="F705" s="30">
+        <v>1</v>
+      </c>
+      <c r="G705" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J705" s="30" t="s">
+        <v>1919</v>
+      </c>
+      <c r="K705" s="30" t="s">
+        <v>1920</v>
+      </c>
+      <c r="M705" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N705" s="30">
+        <v>0</v>
+      </c>
+      <c r="O705" s="30">
+        <v>0</v>
+      </c>
+      <c r="P705" s="30" t="s">
+        <v>1921</v>
+      </c>
+      <c r="Q705" s="30">
+        <v>1000</v>
+      </c>
+      <c r="S705" s="54"/>
+      <c r="X705" s="30" t="s">
+        <v>1923</v>
+      </c>
+      <c r="Y705" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z705" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA705" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB705" s="30">
+        <v>14</v>
+      </c>
+      <c r="AC705" s="30" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AD705" s="30" t="s">
+        <v>1925</v>
+      </c>
+      <c r="AE705" s="72" t="s">
+        <v>1926</v>
+      </c>
+      <c r="AI705" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ705" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM705" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN705" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A706" s="21">
+        <v>705</v>
+      </c>
+      <c r="B706" s="30">
+        <v>10622</v>
+      </c>
+      <c r="F706" s="30">
+        <v>1</v>
+      </c>
+      <c r="G706" s="30" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J706" s="30" t="s">
+        <v>1928</v>
+      </c>
+      <c r="K706" s="30" t="s">
+        <v>1929</v>
+      </c>
+      <c r="M706" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N706" s="30">
+        <v>0</v>
+      </c>
+      <c r="O706" s="30">
+        <v>0</v>
+      </c>
+      <c r="P706" s="30" t="s">
+        <v>1921</v>
+      </c>
+      <c r="Q706" s="30">
+        <v>5000</v>
+      </c>
+      <c r="S706" s="54"/>
+      <c r="X706" s="30" t="s">
+        <v>1922</v>
+      </c>
+      <c r="Y706" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z706" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA706" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB706" s="30">
+        <v>14</v>
+      </c>
+      <c r="AC706" s="30" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AD706" s="30" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AE706" s="72" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AI706" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ706" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM706" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN706" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A707" s="21">
+        <v>706</v>
+      </c>
+      <c r="B707" s="30">
+        <v>10623</v>
+      </c>
+      <c r="F707" s="30">
+        <v>1</v>
+      </c>
+      <c r="G707" s="30" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J707" s="30" t="s">
+        <v>1919</v>
+      </c>
+      <c r="K707" s="30" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M707" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N707" s="30">
+        <v>0</v>
+      </c>
+      <c r="O707" s="30">
+        <v>0</v>
+      </c>
+      <c r="P707" s="30" t="s">
+        <v>1921</v>
+      </c>
+      <c r="Q707" s="30">
+        <v>9800</v>
+      </c>
+      <c r="S707" s="54"/>
+      <c r="X707" s="30" t="s">
+        <v>1922</v>
+      </c>
+      <c r="Y707" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z707" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA707" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB707" s="30">
+        <v>14</v>
+      </c>
+      <c r="AC707" s="30" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AD707" s="30" t="s">
+        <v>1934</v>
+      </c>
+      <c r="AE707" s="72" t="s">
+        <v>1935</v>
+      </c>
+      <c r="AI707" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ707" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM707" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN707" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A708" s="21">
+        <v>707</v>
+      </c>
+      <c r="B708" s="30">
+        <v>10624</v>
+      </c>
+      <c r="F708" s="30">
+        <v>1</v>
+      </c>
+      <c r="G708" s="30" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J708" s="30" t="s">
+        <v>1919</v>
+      </c>
+      <c r="K708" s="30" t="s">
+        <v>1936</v>
+      </c>
+      <c r="M708" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N708" s="30">
+        <v>0</v>
+      </c>
+      <c r="O708" s="30">
+        <v>0</v>
+      </c>
+      <c r="P708" s="30" t="s">
+        <v>1921</v>
+      </c>
+      <c r="Q708" s="30">
+        <v>19800</v>
+      </c>
+      <c r="S708" s="54"/>
+      <c r="X708" s="30" t="s">
+        <v>1922</v>
+      </c>
+      <c r="Y708" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z708" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA708" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB708" s="30">
+        <v>14</v>
+      </c>
+      <c r="AC708" s="30" t="s">
+        <v>1924</v>
+      </c>
+      <c r="AD708" s="30" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AE708" s="72" t="s">
+        <v>1938</v>
+      </c>
+      <c r="AI708" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ708" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM708" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN708" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="H683:H688"/>

--- a/config_8.24/shoping_config_xiaomi.xlsx
+++ b/config_8.24/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="1939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5573" uniqueCount="1935">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7269,70 +7269,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>非冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"101万金币"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,1,0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,1,0</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1010000,1100000,100}</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1000000</t>
     </r>
@@ -7359,7 +7295,35 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>绝地反击</t>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000000,10000000</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20400000,21600000,100}</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -7367,11 +7331,63 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"510万金币"</t>
+    <t>"101万金币",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1010000,1100000,100}</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"510万金币",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -7391,23 +7407,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>000000,10000000</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1020万金币"</t>
+    <t>"1020万金币",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -7443,23 +7443,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"2040万金币"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20400000,21600000,100}</t>
-    </r>
+    <t>"2040万金币",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -64182,10 +64166,10 @@
         <v>1918</v>
       </c>
       <c r="J705" s="30" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="K705" s="30" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="M705" s="30">
         <v>-31</v>
@@ -64197,14 +64181,14 @@
         <v>0</v>
       </c>
       <c r="P705" s="30" t="s">
-        <v>1921</v>
+        <v>1889</v>
       </c>
       <c r="Q705" s="30">
         <v>1000</v>
       </c>
       <c r="S705" s="54"/>
       <c r="X705" s="30" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="Y705" s="30">
         <v>99999999</v>
@@ -64219,13 +64203,13 @@
         <v>14</v>
       </c>
       <c r="AC705" s="30" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="AD705" s="30" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="AE705" s="72" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="AI705" s="30">
         <v>1</v>
@@ -64251,13 +64235,13 @@
         <v>1</v>
       </c>
       <c r="G706" s="30" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="J706" s="30" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K706" s="30" t="s">
         <v>1928</v>
-      </c>
-      <c r="K706" s="30" t="s">
-        <v>1929</v>
       </c>
       <c r="M706" s="30">
         <v>-31</v>
@@ -64269,14 +64253,14 @@
         <v>0</v>
       </c>
       <c r="P706" s="30" t="s">
-        <v>1921</v>
+        <v>1889</v>
       </c>
       <c r="Q706" s="30">
         <v>5000</v>
       </c>
       <c r="S706" s="54"/>
       <c r="X706" s="30" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="Y706" s="30">
         <v>99999999</v>
@@ -64291,13 +64275,13 @@
         <v>14</v>
       </c>
       <c r="AC706" s="30" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="AD706" s="30" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="AE706" s="72" t="s">
-        <v>1932</v>
+        <v>1920</v>
       </c>
       <c r="AI706" s="30">
         <v>1</v>
@@ -64323,13 +64307,13 @@
         <v>1</v>
       </c>
       <c r="G707" s="30" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="J707" s="30" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="K707" s="30" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="M707" s="30">
         <v>-31</v>
@@ -64341,14 +64325,14 @@
         <v>0</v>
       </c>
       <c r="P707" s="30" t="s">
-        <v>1921</v>
+        <v>1889</v>
       </c>
       <c r="Q707" s="30">
         <v>9800</v>
       </c>
       <c r="S707" s="54"/>
       <c r="X707" s="30" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="Y707" s="30">
         <v>99999999</v>
@@ -64363,13 +64347,13 @@
         <v>14</v>
       </c>
       <c r="AC707" s="30" t="s">
-        <v>1930</v>
+        <v>1884</v>
       </c>
       <c r="AD707" s="30" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="AE707" s="72" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="AI707" s="30">
         <v>1</v>
@@ -64398,10 +64382,10 @@
         <v>1918</v>
       </c>
       <c r="J708" s="30" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="K708" s="30" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="M708" s="30">
         <v>-31</v>
@@ -64413,14 +64397,14 @@
         <v>0</v>
       </c>
       <c r="P708" s="30" t="s">
-        <v>1921</v>
+        <v>1889</v>
       </c>
       <c r="Q708" s="30">
         <v>19800</v>
       </c>
       <c r="S708" s="54"/>
       <c r="X708" s="30" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="Y708" s="30">
         <v>99999999</v>
@@ -64435,13 +64419,13 @@
         <v>14</v>
       </c>
       <c r="AC708" s="30" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="AD708" s="30" t="s">
-        <v>1937</v>
+        <v>1921</v>
       </c>
       <c r="AE708" s="72" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="AI708" s="30">
         <v>1</v>
